--- a/output/excel.xlsx
+++ b/output/excel.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,12 +480,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>17 hours ago ... “Today, [Russian President] Vladimir Putin is testing whether we're still that strong. Iran, North Korea and especially China watch closely ...</t>
+          <t>19 hours ago ... “Today, [Russian President] Vladimir Putin is testing whether we're still that strong. Iran, North Korea and especially China watch closely ...</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-25.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-64.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>10 hours ago ... Why have Brazilian sharks tested positive for cocaine? Study finds rise in numbers of people using the drug is causing large quantities to ...</t>
+          <t>12 hours ago ... Why have Brazilian sharks tested positive for cocaine? Study finds rise in numbers of people using the drug is causing large quantities to ...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-26.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-65.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -532,12 +532,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13 hours ago ... Mutare, Zimbabwe – When Wonder Mwatamawenyu tested positive for HIV as a young man more than two decades ago, he thought he had signed his ...</t>
+          <t>15 hours ago ... Mutare, Zimbabwe – When Wonder Mwatamawenyu tested positive for HIV as a young man more than two decades ago, he thought he had signed his ...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-27.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-66.png</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -558,12 +558,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>12 hours ago ... Aricell accused of manipulating test samples from previous inspections and hiring unskilled labourers at lithium plant.</t>
+          <t>13 hours ago ... Aricell accused of manipulating test samples from previous inspections and hiring unskilled labourers at lithium plant.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-28.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-67.png</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -584,12 +584,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>15 hours ago ... Last year, a criminal court found East Java-based Afi Farma guilty of negligence and jailed officials for not testing the ingredients sent by ...</t>
+          <t>17 hours ago ... Last year, a criminal court found East Java-based Afi Farma guilty of negligence and jailed officials for not testing the ingredients sent by ...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-29.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-68.png</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-30.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-69.png</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-31.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-70.png</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-32.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-71.png</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-33.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-72.png</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-34.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-73.png</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-35.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-74.png</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-36.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-75.png</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -792,12 +792,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>3 days ago ... India's T20 World Cup winning captain will stay in charge of ODI and Test teams, BCCI says. Published On 8 Jul 20248 Jul 2024. Rohit ...</t>
+          <t>4 days ago ... India's T20 World Cup winning captain will stay in charge of ODI and Test teams, BCCI says. Published On 8 Jul 20248 Jul 2024. Rohit ...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-37.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-76.png</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-38.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-77.png</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-39.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-78.png</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -870,12 +870,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4 days ago ... Philippine health officials received five suspected cases of the mpox in the last week, but only a 33-year-old male tested positive for the ...</t>
+          <t>5 days ago ... Philippine health officials received five suspected cases of the mpox in the last week, but only a 33-year-old male tested positive for the ...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-40.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-79.png</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4 days ago ... Pat Cummins expects his two powerful all-rounders to make a larger impact in the upcoming cricket test series.</t>
+          <t>5 days ago ... Pat Cummins expects his two powerful all-rounders to make a larger impact in the upcoming cricket test series.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-41.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-80.png</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-42.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-81.png</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-43.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-82.png</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-44.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-83.png</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-45.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-84.png</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-46.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-85.png</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-47.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-86.png</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-48.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-87.png</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-49.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-88.png</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-50.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-89.png</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-51.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-90.png</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-52.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-91.png</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-53.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-92.png</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-54.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-93.png</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1252,20 +1252,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Would a hidden ocean on Mars spur human settlement? | Space ...</t>
+          <t>Africa CDC declares mpox a public health emergency | Health News ...</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45518</v>
+        <v>45520</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aug 12, 2024 ... SpaceX's Starship completes first full test flight after surviving re-entry. list 4 of 4. China's lunar probe Chang'e-6 returns from far side ...</t>
+          <t>Aug 12, 2024 ... FILE PHOTO: A person holds a test tube labelled "Bird Flu", in. How is new malaria vaccine drive working in West Africa? How does the new R21 ...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-55.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-94.png</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1278,20 +1278,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Africa CDC declares mpox a public health emergency | Health News ...</t>
+          <t>What does Sheikh Hasina's resignation mean for India-Bangladesh ...</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45520</v>
+        <v>45516</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aug 12, 2024 ... FILE PHOTO: A person holds a test tube labelled "Bird Flu", in. How is new malaria vaccine drive working in West Africa? How does the new R21 ...</t>
+          <t>Aug 11, 2024 ... That may not happen with exiled BNP opposition leader Tarique Rahman due to return to Bangladesh, according to his party. “The time-tested ...</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-56.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-95.png</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1304,24 +1304,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>What does Sheikh Hasina's resignation mean for India-Bangladesh ...</t>
+          <t>Algeria's Imane Khelif files harassment case after gender row | Paris ...</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45516</v>
+        <v>45515</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aug 11, 2024 ... That may not happen with exiled BNP opposition leader Tarique Rahman due to return to Bangladesh, according to his party. “The time-tested ...</t>
+          <t>Aug 10, 2024 ... The International Olympic Committee stands with the two Olympic boxers in gender test debate, cites flawed IBA testing. Published On 4 Aug ...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-57.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-96.png</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1330,24 +1330,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Algeria's Imane Khelif files harassment case after gender row | Paris ...</t>
+          <t>France vs Spain 3-5: Paris Olympics 2024 men's football final ...</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45515</v>
+        <v>45513</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aug 10, 2024 ... The International Olympic Committee stands with the two Olympic boxers in gender test debate, cites flawed IBA testing. Published On 4 Aug ...</t>
+          <t>Aug 8, 2024 ... France were exceptional in the second half and tested the Spanish defence throughout the match. However, two terrific goals from Camello in ...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-58.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-97.png</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1356,24 +1356,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Russia-Ukraine war updates: Third day of fighting in Kursk region ...</t>
+          <t>IBA gender tests on two Olympic boxers flawed and illegitimate, says ...</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45512</v>
+        <v>45508</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aug 7, 2024 ... Ukrainian soldiers have entered western Russia in a move that has bewildered Moscow, successfully tested its weak border defences and may ...</t>
+          <t>Aug 3, 2024 ... The International Olympic Committee stands with the two Olympic boxers in gender test debate, cites flawed IBA testing.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-59.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-98.png</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1382,24 +1382,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IBA gender tests on two Olympic boxers flawed and illegitimate, says ...</t>
+          <t>Why have Brazilian sharks tested positive for cocaine? | Drugs News ...</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45508</v>
+        <v>45499</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Aug 3, 2024 ... The International Olympic Committee stands with the two Olympic boxers in gender test debate, cites flawed IBA testing.</t>
+          <t>Jul 25, 2024 ... Why have Brazilian sharks tested positive for cocaine? Study finds people using the drug are causing large quantities to leak into the sea.</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-60.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-99.png</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1408,7 +1408,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Why have Brazilian sharks tested positive for cocaine? | Drugs News ...</t>
+          <t>A year after Niger's coup, split political loyalties test family ties ...</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
@@ -1416,16 +1416,16 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jul 25, 2024 ... Why have Brazilian sharks tested positive for cocaine? Study finds people using the drug are causing large quantities to leak into the sea.</t>
+          <t>Jul 25, 2024 ... Since the July 26, 2023 coup against Mohamed Bazoum – a democratically elected leader and close ally to the European Union who ruled for a mere ...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-61.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-100.png</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1434,52 +1434,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A year after Niger's coup, split political loyalties test family ties ...</t>
+          <t>Maduro's greatest test? All you need to know about Venezuela's ...</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45499</v>
+        <v>45500</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jul 25, 2024 ... Since the July 26, 2023 coup against Mohamed Bazoum – a democratically elected leader and close ally to the European Union who ruled for a mere ...</t>
+          <t>Jul 25, 2024 ... What happened last time Maduro ran? The opposition largely sat out the 2018 election in protest of what it said was a biased electoral system.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-62.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-101.png</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Maduro's greatest test? All you need to know about Venezuela's ...</t>
-        </is>
-      </c>
-      <c r="B40" s="2" t="n">
-        <v>45500</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Jul 25, 2024 ... What happened last time Maduro ran? The opposition largely sat out the 2018 election in protest of what it said was a biased electoral system.</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>C:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-63.png</t>
-        </is>
-      </c>
-      <c r="E40" t="n">
-        <v>3</v>
-      </c>
-      <c r="F40" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/excel.xlsx
+++ b/output/excel.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,20 +472,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Key takeaways from the fourth night of the Democratic National ...</t>
+          <t>What is the deadly 'Triple E' mosquito virus spreading in ...</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>19 hours ago ... “Today, [Russian President] Vladimir Putin is testing whether we're still that strong. Iran, North Korea and especially China watch closely ...</t>
+          <t>7 hours ago ... In severe cases, brain swelling (encephalitis). EEE is diagnosed by observing symptoms and testing spinal fluid or blood, which can show if the ...</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-64.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-1.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -498,24 +498,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Panda Meng Meng gives birth to second set of twins at Berlin Zoo ...</t>
+          <t>In Pakistan's Balochistan, deadly attacks rip uneasy migrant-local ...</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12 hours ago ... Why have Brazilian sharks tested positive for cocaine? Study finds rise in numbers of people using the drug is causing large quantities to ...</t>
+          <t>7 hours ago ... 'Historic day': Bangladesh record first-ever Test cricket win over Pakistan. Bangladesh dedicates win to people killed in recent protests ...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-65.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-2.png</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -524,20 +524,20 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>'They give me hope': Beating HIV stigma with community support in ...</t>
+          <t>Russia-Ukraine war: List of key events, day 915 | Russia-Ukraine ...</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>15 hours ago ... Mutare, Zimbabwe – When Wonder Mwatamawenyu tested positive for HIV as a young man more than two decades ago, he thought he had signed his ...</t>
+          <t>21 hours ago ... Weapons. Zelenskyy said the military had recently carried out the first successful test of a domestically-produced ballistic missile. He said he ...</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-66.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-3.png</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -550,24 +550,24 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>South Korea blames deadly battery plant fire on safety failures ...</t>
+          <t>Sinner, Swiatek ease into US Open second round but Raducanu ...</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13 hours ago ... Aricell accused of manipulating test samples from previous inspections and hiring unskilled labourers at lithium plant.</t>
+          <t>15 hours ago ... Jannik Sinner brushed aside the pretournament drama surrounding his failed doping tests ... tests in March for a banned drug. Keep reading. list ...</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-67.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-4.png</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -576,20 +576,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Indonesian court orders cash payments to toxic cough syrup families ...</t>
+          <t>Dozens missing in Yemen floods, risk of cholera outbreak rises ...</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>45527</v>
+        <v>45532</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>17 hours ago ... Last year, a criminal court found East Java-based Afi Farma guilty of negligence and jailed officials for not testing the ingredients sent by ...</t>
+          <t>11 hours ago ... Abdullah al-Shmairi is one among many who fears his entire family may now have cholera after his son tested positive. “Our whole household ...</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-68.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-5.png</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -602,20 +602,20 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mapped: Which countries have reported mpox cases so far? | Health ...</t>
+          <t>West Africa's 'coup belt': Did Mali's 2020 army takeover change the ...</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1 day ago ... However, sustained transmission might be low in Europe if cases are quickly diagnosed and if testing, surveillance and contact tracing are used, ...</t>
+          <t>2 days ago ... Keep reading. list of 4 items list 1 of 4. A year after Niger's coup, split political loyalties test family ties. list 2 of 4. 'They rape us ...</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-69.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-6.png</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -628,20 +628,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Thailand confirms Asia's first known case of new mpox strain ...</t>
+          <t>Bangladesh cricketers rally round murder accused teammate Shakib ...</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1 day ago ... Health authorities say patient travelled from Africa, instruct new arrivals from 42 'risk countries' to undergo testing.</t>
+          <t>2 days ago ... Captain Najmul Hossain Shanto said his team's maiden Test win against Pakistan on Sunday, in which all-rounder Shakib took three wickets in the ...</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-70.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-7.png</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -654,20 +654,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Khamenei's calculus: Iran supreme leader faces a bitter choice on ...</t>
+          <t>Does a presidential candidate's military service still matter to US ...</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>45525</v>
+        <v>45531</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2 days ago ... Ultimately, the choices before Khamenei are like the bitter cups he must drink from – the supreme leader faces a test of endurance as he ...</t>
+          <t>1 day ago ... “I think that sort of service was also a test of patriotism.” Tim Walz gestures across a wooden table, as he speaks with Melissa Houghtaling ...</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-71.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-8.png</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -680,20 +680,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Players allege double standards after Sinner escapes tennis doping ...</t>
+          <t>Russia launches another wave of missiles and drones at Ukraine ...</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>45525</v>
+        <v>45531</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2 days ago ... Tennis player Jannik Sinner on court. World number one Jannik Sinner failed two drug tests in March 2024 but has been cleared of wrongdoing by ...</t>
+          <t>1 day ago ... “There has been a positive test of the first Ukrainian ballistic missile. I congratulate our defence industry on this. I can't share any more ...</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-72.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-9.png</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -706,24 +706,24 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Will Arshad Nadeem's Olympic gold change the course for sports in ...</t>
+          <t>Kamala Harris and fortifying Black-Palestinian solidarity | US ...</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>45526</v>
+        <v>45531</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3 days ago ... Pakistan's great fall: How former hockey giant failed Olympics test, again ... World number one Jannik Sinner failed two drug tests in March 2024 ...</t>
+          <t>1 day ago ... Palestine acts as a testing ground for military technologies and the normalisation of extreme violence which can be deployed against ...</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-73.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-10.png</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -732,20 +732,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Kursk incursion lifts Ukraine's hopes but some expect 'nightmare' in ...</t>
+          <t>China steps up armed patrols on border as Myanmar conflict deepens</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>3 days ago ... He snubbed battle-tested generals to appoint his former bodyguard Alexei Dyumin, who has never commanded military units, as the person in ...</t>
+          <t>3 days ago ... The Southern Theater of the Chinese People's Liberation Army said it had also organised army units to test soldiers' ability to “quickly ...</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-74.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-11.png</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -758,20 +758,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>EU lists lower tariff on China-made Teslas as it revises duties | Trade ...</t>
+          <t>As Ukraine, Gaza wars rage on, some airlines are benefitting ...</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>45525</v>
+        <v>45530</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3 days ago ... Video shows rocket engine explode during test at new Scottish spaceport. list 4 of 4. 'Empty words': Advocates say Biden's Gaza ceasefire nod ...</t>
+          <t>2 days ago ... That's changed recently,” Ken Munro, partner at Pen Test Partners, a cybersecurity consulting firm, told Al Jazeera. OpsGroup – which ...</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-75.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-12.png</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -784,20 +784,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Cricket: Samoa's Visser breaks men's T20I record with 39 runs in ...</t>
+          <t>New Zealand dairy firm fined over products using Indian butter ...</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4 days ago ... India's T20 World Cup winning captain will stay in charge of ODI and Test teams, BCCI says. Published On 8 Jul 20248 Jul 2024. Rohit ...</t>
+          <t>3 days ago ... North Korean leader Kim Jong Un oversees suicide drone tests. list 3 of 4. The Take: The fallacies of Israel's 'Octopus Doctrine'. list 4 of 4 ...</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-76.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-13.png</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -810,20 +810,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Video shows rocket engine explode during test at new Scottish ...</t>
+          <t>North Korean leader Kim Jong Un oversees suicide drone tests ...</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>45524</v>
+        <v>45530</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3 days ago ... A rocket engine exploded during a test at the new SaxaVord spaceport in Scotland that officials hope will open for operation later this year ...</t>
+          <t>3 days ago ... State media shows Kim looking ecstatic after test in which drones crashed into what appeared to be a tank.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-77.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-14.png</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -836,24 +836,24 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>After COVID and Ebola, doctors take on mpox amid conflict in ...</t>
+          <t>Chinese swimmer Sun Yang wins on return from four-year drugs ...</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4 days ago ... Although some antiviral drugs are being tested internationally, they are not yet available here. Congolese health authorities have instead ...</t>
+          <t>2 days ago ... ... test, the circumstances of which he still disputes. Keep reading ... Sun was also given a three-month ban in 2014 after testing positive for a ...</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-78.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-15.png</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -862,20 +862,20 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Philippines reports new mpox case with no history of foreign travel ...</t>
+          <t>Airlines suspend flights over clashes between Israel and Hezbollah ...</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5 days ago ... Philippine health officials received five suspected cases of the mpox in the last week, but only a 33-year-old male tested positive for the ...</t>
+          <t>3 days ago ... North Korean leader Kim Jong Un oversees suicide drone tests ... Etihad, Ethiopian Airlines and Hungarian low-cost carrier Wizz also announced the ...</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-79.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-16.png</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -888,24 +888,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>India vs Australia test series 2024/25: Cummins sees Marsh, Green ...</t>
+          <t>Nearly 200 people dead: What's behind armed attacks in Burkina ...</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>45523</v>
+        <v>45530</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5 days ago ... Pat Cummins expects his two powerful all-rounders to make a larger impact in the upcoming cricket test series.</t>
+          <t>2 days ago ... Analysts said the recruits get only minimal training and are not combat-tested. “They are conducting more operations and have secured some ...</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-80.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-17.png</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -914,20 +914,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>How far has mpox spread and how can you protect yourself ...</t>
+          <t>Cricket: Bangladesh beat Pakistan by 10 wickets in historic ...</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>45524</v>
+        <v>45529</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>7 days ago ... There is no current treatment for mpox but some antiviral drugs are being tested, Marks said. “There is, however, vaccination, which is ...</t>
+          <t>3 days ago ... ... Test in Rawalpindi. Off-spinner Mehidy Hasan Miraz and left-arm spinner Shakib Al Hasan, who was a lawmaker from former Prime Minister ...</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-81.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-18.png</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -940,20 +940,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Israel war on Gaza updates: Gaza records first polio case in 25 ...</t>
+          <t>Prize money, seeds, schedule: All to know about the 2024 US Open ...</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>45521</v>
+        <v>45530</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8 days ago ... The children's stool samples have been sent for testing to the Jordan National Polio Laboratory, it said. The potentially fatal, paralysing ...</t>
+          <t>3 days ago ... ... tests in recent weeks, causing a stir among fellow players with Djokovic questioning the “lack of standardised protocols” in tennis. Al ...</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-82.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-19.png</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -966,20 +966,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Pakistan says one case of mpox virus detected, European agency ...</t>
+          <t>Djokovic wants 'clear protocols' in tennis after Sinner doping case ...</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>45521</v>
+        <v>45529</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8 days ago ... ... tests if they see symptoms of the disease in any passenger returning from abroad. The disease caused by the virus leads to flu-like symptoms ...</t>
+          <t>4 days ago ... Sinner tested positive twice in March for an anabolic steroid, but the International Tennis Integrity Agency determined the banned performance ...</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-83.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-20.png</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -992,20 +992,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>In troubled Taiwan China waters, a swimming race provides rare ...</t>
+          <t>Liverpool vs Brentford 2-0: Premier League football – as it happened ...</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>45523</v>
+        <v>45529</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8 days ago ... Taiwan's 40th edition of its Han Kuang war games tests the island's readiness to repel a potential Chinese invasion. Published On 25 Jul ...</t>
+          <t>3 days ago ... ... tests soon. Liverpool's principal owner, John Henry, was in the crowd, and he must be pretty pleased by what he's seen. Meanwhile ...</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-84.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-21.png</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1018,20 +1018,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sweden confirms first case of mpox strain outside Africa | Health ...</t>
+          <t>What's the big mystery behind the Shroud of Turin? | History News ...</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>45520</v>
+        <v>45528</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Aug 14, 2024 ... FILE PHOTO: A person holds a test tube labelled "Bird Flu", in. Photos: Africa's cholera crisis is worse than ever. In Southern and East ...</t>
+          <t>4 days ago ... Bloodstains on the shroud were tested and found to be the AB blood type, according to a research article by a team from the Spanish Centre of ...</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-85.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-22.png</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1044,20 +1044,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NASA to decide on how to bring home stranded astronauts by end of ...</t>
+          <t>Boeing's Starliner astronauts to return from space next year, NASA ...</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>45519</v>
+        <v>45528</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Aug 14, 2024 ... The company earlier this month posted a list of testing done on thrusters in space and on the ground since liftoff. NASA chief astronaut Joe ...</t>
+          <t>4 days ago ... Veteran NASA astronauts Butch Wilmore and Suni Williams, both former military test pilots, became the first crew to ride Starliner on June 5 ...</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-86.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-23.png</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1070,20 +1070,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Manchester United vs Fulham: English Premier League match ...</t>
+          <t>Panda Meng Meng gives birth to second set of twins at Berlin Zoo ...</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>45520</v>
+        <v>45527</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Aug 14, 2024 ... Harry Maguire will be given a late fitness test after the central defender picked up a knock in the Community Shield, which means new ...</t>
+          <t>5 days ago ... Why have Brazilian sharks tested positive for cocaine? Study finds rise in numbers of people using the drug is causing large quantities to ...</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-87.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-24.png</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1096,20 +1096,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>All to know for LaLiga 2024/25: Mbappe, Bellingham, Real Madrid ...</t>
+          <t>'They give me hope': Beating HIV stigma with community support in ...</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>45519</v>
+        <v>45527</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Aug 14, 2024 ... ... test in the UEFA Super Cup win against Atalanta on Wednesday [Aleksandra Szmigiel/Reuters]. England international Jude Bellingham took Spain ...</t>
+          <t>6 days ago ... Mutare, Zimbabwe – When Wonder Mwatamawenyu tested positive for HIV as a young man more than two decades ago, he thought he had signed his ...</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-88.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-25.png</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1122,20 +1122,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>North Korea set to reopen borders to foreign tourists in December ...</t>
+          <t>South Korea blames deadly battery plant fire on safety failures ...</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>45519</v>
+        <v>45527</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Aug 13, 2024 ... North Korea claims ballistic missile test with 'superlarge warhead'. South Korean military says Pyongyang's claim of successful launch ...</t>
+          <t>6 days ago ... Aricell accused of manipulating test samples from previous inspections and hiring unskilled labourers at lithium plant.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-89.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-26.png</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1148,20 +1148,20 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>New Zealand foodbank hands out meth-laced sweets | Crime News ...</t>
+          <t>Indonesian court orders cash payments to toxic cough syrup families ...</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>45518</v>
+        <v>45527</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Aug 13, 2024 ... Why have Brazilian sharks tested positive for cocaine? Study finds rise in numbers of people using the drug is causing large quantities to ...</t>
+          <t>6 days ago ... Last year, a criminal court found East Java-based Afi Farma guilty of negligence and jailed officials for not testing the ingredients sent by ...</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-90.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-27.png</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1174,24 +1174,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rowling, Musk named in French probe on boxer Imane Khelif's ...</t>
+          <t>Mapped: New mpox cases reported. What countries have it now ...</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>45518</v>
+        <v>45531</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Aug 13, 2024 ... 'Those tests are not legitimate': IOC on IBA gender test of Olympic boxers ... testing. The world championship is overseen by the ...</t>
+          <t>6 days ago ... ... test results were released. Europe. Sweden (one case, zero deaths) ... However, sustained transmission might be low in Europe if cases are quickly ...</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-91.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-28.png</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1200,20 +1200,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>US inflation slows in July, clearing way for a cut in interest rates ...</t>
+          <t>Thailand confirms Asia's first known case of new mpox strain ...</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>45518</v>
+        <v>45526</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aug 13, 2024 ... Fears of a United States recession are putting the presidential campaign of Kamala Harris to the test. Video Duration 28 minutes 00 seconds ...</t>
+          <t>6 days ago ... Health authorities say patient travelled from Africa, instruct new arrivals from 42 'risk countries' to undergo testing.</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-92.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-29.png</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1226,20 +1226,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trump returns to X with two-hour Elon Musk chat hit by technical ...</t>
+          <t>Khamenei's calculus: Iran supreme leader faces a bitter choice on ...</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>45517</v>
+        <v>45525</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Aug 12, 2024 ... The day before, he posted that he was “going to do some system scaling tests tonight &amp; tomorrow in advance of the conversation”. He also ...</t>
+          <t>8 days ago ... Ultimately, the choices before Khamenei are like the bitter cups he must drink from – the supreme leader faces a test of endurance as he ...</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-93.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-30.png</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1252,20 +1252,20 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Africa CDC declares mpox a public health emergency | Health News ...</t>
+          <t>Thailand says mpox detected in European who travelled from Africa ...</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>45520</v>
+        <v>45525</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Aug 12, 2024 ... FILE PHOTO: A person holds a test tube labelled "Bird Flu", in. How is new malaria vaccine drive working in West Africa? How does the new R21 ...</t>
+          <t>8 days ago ... Thailand has detected an mpox case in a European man who arrived from Africa last week and is awaiting test results to determine the strain, ...</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-94.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-31.png</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1278,20 +1278,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>What does Sheikh Hasina's resignation mean for India-Bangladesh ...</t>
+          <t>Players allege double standards after Sinner escapes tennis doping ...</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>45516</v>
+        <v>45525</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Aug 11, 2024 ... That may not happen with exiled BNP opposition leader Tarique Rahman due to return to Bangladesh, according to his party. “The time-tested ...</t>
+          <t>8 days ago ... Tennis player Jannik Sinner on court. World number one Jannik Sinner failed two drug tests in March 2024 but has been cleared of wrongdoing by ...</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-95.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-32.png</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1304,24 +1304,24 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Algeria's Imane Khelif files harassment case after gender row | Paris ...</t>
+          <t>Footballer Cristiano Ronaldo breaks new YouTube channel record ...</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>45515</v>
+        <v>45526</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Aug 10, 2024 ... The International Olympic Committee stands with the two Olympic boxers in gender test debate, cites flawed IBA testing. Published On 4 Aug ...</t>
+          <t>8 days ago ... ... tests to win his first. Ronaldo says he will probably retire at Al Nassr in two or three years. Al Nassr's Cristiano Ronaldo greets his ...</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-96.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-33.png</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1330,20 +1330,20 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>France vs Spain 3-5: Paris Olympics 2024 men's football final ...</t>
+          <t>Kursk incursion lifts Ukraine's hopes but some expect 'nightmare' in ...</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>45513</v>
+        <v>45524</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Aug 8, 2024 ... France were exceptional in the second half and tested the Spanish defence throughout the match. However, two terrific goals from Camello in ...</t>
+          <t>Aug 19, 2024 ... He snubbed battle-tested generals to appoint his former bodyguard Alexei Dyumin, who has never commanded military units, as the person in ...</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-97.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-34.png</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1356,24 +1356,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IBA gender tests on two Olympic boxers flawed and illegitimate, says ...</t>
+          <t>EU lists lower tariff on China-made Teslas as it revises duties | Trade ...</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>45508</v>
+        <v>45525</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Aug 3, 2024 ... The International Olympic Committee stands with the two Olympic boxers in gender test debate, cites flawed IBA testing.</t>
+          <t>Aug 19, 2024 ... Video shows rocket engine explode during test at new Scottish spaceport. list 4 of 4. 'Empty words': Advocates say Biden's Gaza ceasefire nod ...</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-98.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-35.png</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F36" t="b">
         <v>0</v>
@@ -1382,24 +1382,24 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Why have Brazilian sharks tested positive for cocaine? | Drugs News ...</t>
+          <t>Cricket: Samoa's Visser breaks men's T20I record with 39 runs in ...</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>45499</v>
+        <v>45524</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Jul 25, 2024 ... Why have Brazilian sharks tested positive for cocaine? Study finds people using the drug are causing large quantities to leak into the sea.</t>
+          <t>Aug 19, 2024 ... India's T20 World Cup winning captain will stay in charge of ODI and Test teams, BCCI says. Published On 8 Jul 20248 Jul 2024. Rohit ...</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-99.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-36.png</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37" t="b">
         <v>0</v>
@@ -1408,24 +1408,24 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A year after Niger's coup, split political loyalties test family ties ...</t>
+          <t>Video shows rocket engine explode during test at new Scottish ...</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>45499</v>
+        <v>45524</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Jul 25, 2024 ... Since the July 26, 2023 coup against Mohamed Bazoum – a democratically elected leader and close ally to the European Union who ruled for a mere ...</t>
+          <t>Aug 19, 2024 ... A rocket engine exploded during a test at the new SaxaVord spaceport in Scotland that officials hope will open for operation later this year ...</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-100.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-37.png</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" t="b">
         <v>0</v>
@@ -1434,26 +1434,234 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Maduro's greatest test? All you need to know about Venezuela's ...</t>
+          <t>After COVID and Ebola, doctors take on mpox amid conflict in ...</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>45500</v>
+        <v>45523</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Jul 25, 2024 ... What happened last time Maduro ran? The opposition largely sat out the 2018 election in protest of what it said was a biased electoral system.</t>
+          <t>Aug 18, 2024 ... Although some antiviral drugs are being tested internationally, they are not yet available here. Congolese health authorities have instead ...</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-101.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-38.png</t>
         </is>
       </c>
       <c r="E39" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Philippines reports new mpox case with no history of foreign travel ...</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Aug 18, 2024 ... Philippine health officials received five suspected cases of the mpox in the last week, but only a 33-year-old male tested positive for the ...</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-39.png</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>India vs Australia test series 2024/25: Cummins sees Marsh, Green ...</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Aug 18, 2024 ... Pat Cummins expects his two powerful all-rounders to make a larger impact in the upcoming cricket test series.</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-40.png</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>How far has mpox spread and how can you protect yourself ...</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Aug 16, 2024 ... There is no current treatment for mpox but some antiviral drugs are being tested, Marks said. “There is, however, vaccination, which is ...</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-41.png</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Indian doctors call nationwide strike over rape and murder of ...</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Aug 15, 2024 ... ... tests to win his first. Pacific Islands leaders back Australia-funded joint policing plan. Australian Prime Minister Anthony Albanese (centre) ...</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-42.png</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Pakistan says one case of mpox virus detected, European agency ...</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="n">
+        <v>45521</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Aug 15, 2024 ... ... tests if they see symptoms of the disease in any passenger returning from abroad. The disease caused by the virus leads to flu-like symptoms ...</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-43.png</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sweden confirms first case of mpox strain outside Africa | Health ...</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Aug 14, 2024 ... FILE PHOTO: A person holds a test tube labelled "Bird Flu", in. Photos: Africa's cholera crisis is worse than ever. In Southern and East ...</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-44.png</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>1</v>
+      </c>
+      <c r="F45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>What is mpox and why has WHO declared it a global health ...</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="n">
+        <v>45521</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Aug 13, 2024 ... Mpox can be identified by testing a sample of fluid swabbed from the rash. Why has mpox been declared a global emergency? On Wednesday, the ...</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-45.png</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1</v>
+      </c>
+      <c r="F46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>IBA gender tests on two Olympic boxers flawed and illegitimate, says ...</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="n">
+        <v>45508</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Aug 3, 2024 ... The International Olympic Committee stands with the two Olympic boxers in gender test debate, cites flawed IBA testing.</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-46.png</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
         <v>3</v>
       </c>
-      <c r="F39" t="b">
+      <c r="F47" t="b">
         <v>0</v>
       </c>
     </row>

--- a/output/excel.xlsx
+++ b/output/excel.xlsx
@@ -485,7 +485,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-1.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-47.png</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -506,12 +506,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>7 hours ago ... 'Historic day': Bangladesh record first-ever Test cricket win over Pakistan. Bangladesh dedicates win to people killed in recent protests ...</t>
+          <t>8 hours ago ... 'Historic day': Bangladesh record first-ever Test cricket win over Pakistan. Bangladesh dedicates win to people killed in recent protests ...</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-2.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-48.png</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -537,7 +537,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-3.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-49.png</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -563,7 +563,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-4.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-50.png</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-5.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-51.png</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -615,7 +615,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-6.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-52.png</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -641,7 +641,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-7.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-53.png</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -667,7 +667,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-8.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-54.png</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-9.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-55.png</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -719,7 +719,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-10.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-56.png</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -745,7 +745,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-11.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-57.png</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-12.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-58.png</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -797,7 +797,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-13.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-59.png</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -823,7 +823,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-14.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-60.png</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-15.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-61.png</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -875,7 +875,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-16.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-62.png</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -901,7 +901,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-17.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-63.png</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-18.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-64.png</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -953,7 +953,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-19.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-65.png</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -979,7 +979,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-20.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-66.png</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-21.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-67.png</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-22.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-68.png</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-23.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-69.png</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-24.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-70.png</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-25.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-71.png</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-26.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-72.png</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-27.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-73.png</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1187,7 +1187,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-28.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-74.png</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1213,7 +1213,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-29.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-75.png</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-30.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-76.png</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-31.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-77.png</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1291,7 +1291,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-32.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-78.png</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-33.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-79.png</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1343,7 +1343,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-34.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-80.png</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1369,7 +1369,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-35.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-81.png</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-36.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-82.png</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-37.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-83.png</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-38.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-84.png</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-39.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-85.png</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-40.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-86.png</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1525,7 +1525,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-41.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-87.png</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1538,20 +1538,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Indian doctors call nationwide strike over rape and murder of ...</t>
+          <t>Pakistan says one case of mpox virus detected, European agency ...</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Aug 15, 2024 ... ... tests to win his first. Pacific Islands leaders back Australia-funded joint policing plan. Australian Prime Minister Anthony Albanese (centre) ...</t>
+          <t>Aug 15, 2024 ... ... tests if they see symptoms of the disease in any passenger returning from abroad. The disease caused by the virus leads to flu-like symptoms ...</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-42.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-88.png</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1564,20 +1564,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Pakistan says one case of mpox virus detected, European agency ...</t>
+          <t>Sweden confirms first case of mpox strain outside Africa | Health ...</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>45521</v>
+        <v>45520</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Aug 15, 2024 ... ... tests if they see symptoms of the disease in any passenger returning from abroad. The disease caused by the virus leads to flu-like symptoms ...</t>
+          <t>Aug 14, 2024 ... FILE PHOTO: A person holds a test tube labelled "Bird Flu", in. Photos: Africa's cholera crisis is worse than ever. In Southern and East ...</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-43.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-89.png</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1590,20 +1590,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sweden confirms first case of mpox strain outside Africa | Health ...</t>
+          <t>What is mpox and why has WHO declared it a global health ...</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45520</v>
+        <v>45521</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Aug 14, 2024 ... FILE PHOTO: A person holds a test tube labelled "Bird Flu", in. Photos: Africa's cholera crisis is worse than ever. In Southern and East ...</t>
+          <t>Aug 13, 2024 ... Mpox can be identified by testing a sample of fluid swabbed from the rash. Why has mpox been declared a global emergency? On Wednesday, the ...</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-44.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-90.png</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1616,20 +1616,20 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>What is mpox and why has WHO declared it a global health ...</t>
+          <t>What does Sheikh Hasina's resignation mean for India-Bangladesh ...</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>45521</v>
+        <v>45516</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Aug 13, 2024 ... Mpox can be identified by testing a sample of fluid swabbed from the rash. Why has mpox been declared a global emergency? On Wednesday, the ...</t>
+          <t>Aug 11, 2024 ... That may not happen with exiled BNP opposition leader Tarique Rahman due to return to Bangladesh, according to his party. “The time-tested ...</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-45.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-91.png</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1655,7 +1655,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-46.png</t>
+          <t>c:\Code\Projects\thoughtfulai\screenshots\selenium-element-screenshot-92.png</t>
         </is>
       </c>
       <c r="E47" t="n">
